--- a/similarities/split_global/harmonic_similarity_timestamps_129.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_129.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['F:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:37.738798', '0:00:47.769818')]</t>
+          <t>('0:04:10.300000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:37.911000', '0:03:43.713000')]</t>
+          <t>('0:00:18.480000', '0:00:21.420000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.911']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=18.48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:24.520000', '0:00:47.240000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:30.500000', '0:00:41.370000')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+          <t>('0:00:12.560000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000')]</t>
+          <t>('0:00:22.060000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:00:19.980000', '0:00:27.180000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=22.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F:7', 'Bb']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:22.560000', '0:00:28.150000')]</t>
+          <t>('0:00:32.060000', '0:00:33.280000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:39.910000', '0:00:52.200000')]</t>
+          <t>('0:00:47.140000', '0:00:55.200000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=22.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=39.91']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=47.14</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C', 'C:7', 'F', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
+          <t>('0:00:54.400000', '0:01:02.900000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:05.900000', '0:01:12.440000')]</t>
+          <t>('0:00:31.527551', '0:00:52.146870')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=65.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:42.080000', '0:00:57.880000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_206</t>
+          <t>isophonics_28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['C/5', 'G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+          <t>('0:01:05.216764', '0:01:26.999931')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+          <t>('0:02:37.019000', '0:02:42.932000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-206#t=22.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=65.216764</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_189</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:18.220000', '0:00:23.380000')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:09.619433', '0:00:16.956938')]</t>
+          <t>('0:01:00.761383', '0:01:09.294716')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=18.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-189#t=9.619433']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_263</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['C:maj', 'F:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E', 'A', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:01:04.473000', '0:01:07.150000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:32.874217', '0:00:52.251269')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=64.473</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-263#t=32.874217</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:00:05.840000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:17.282018')]</t>
+          <t>('0:00:16.701519', '0:00:23.528185')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7'], ['Eb:7', 'Ab:7', 'Db', 'Ab:7', 'Db']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7'], ['Eb:7', 'Ab:7', 'Db', 'Ab:7', 'Db']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:33.100000', '0:00:43.990000'), ('0:01:37.790000', '0:01:44.200000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:55.230000', '0:01:07.670000'), ('0:00:42.920000', '0:00:50.710000')]</t>
+          <t>('0:00:38.180000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1', 'https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=97.79']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23', 'https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=42.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
